--- a/empirics/modeldata/tool_shares.xlsx
+++ b/empirics/modeldata/tool_shares.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>occ1d</t>
   </si>
@@ -94,7 +94,16 @@
     <t>share_t_t_2225_</t>
   </si>
   <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>occ1d</t>
+  </si>
+  <si>
     <t>prop_computers</t>
+  </si>
+  <si>
+    <t>share_t_t_4_</t>
   </si>
 </sst>
 </file>
@@ -1674,16 +1683,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
